--- a/biology/Zoologie/Eresia_erysice/Eresia_erysice.xlsx
+++ b/biology/Zoologie/Eresia_erysice/Eresia_erysice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eresia erysice est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Nymphalinae et du genre Eresia.
 </t>
@@ -511,13 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Eresia erysice a été décrite par Carl Geyer en 1832 sous le protonyme de Papilio erysice.
-Synonyme : Phyciodes erysice Kirby, 1871[1].
-Sous-espèces
-Eresia erysice erysice ; présent au Brésil.
-Eresia erysice etesiae (Hall, 1929) ; en Guyane et dans le Nord du Brésil[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Eresia erysice a été décrite par Carl Geyer en 1832 sous le protonyme de Papilio erysice.
+Synonyme : Phyciodes erysice Kirby, 1871.
+</t>
         </is>
       </c>
     </row>
@@ -542,14 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eresia erysice est un papillon  aux ailes antérieures arrondies et allongées au dessus orange cuivré, bordé et orné de noir laissant aux antérieures une partie basale orange cuivrée puis des taches plus claires et une ligne submarginale de petites taches claires ; Les ailes postérieures ont une bordure noire ponctuée de tirets blancs, une bande noire et une bande noire basale
-Le revers est plus clair avec la même ornementation.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Eresia erysice erysice ; présent au Brésil.
+Eresia erysice etesiae (Hall, 1929) ; en Guyane et dans le Nord du Brésil.</t>
         </is>
       </c>
     </row>
@@ -574,12 +591,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eresia erysice est un papillon  aux ailes antérieures arrondies et allongées au dessus orange cuivré, bordé et orné de noir laissant aux antérieures une partie basale orange cuivrée puis des taches plus claires et une ligne submarginale de petites taches claires ; Les ailes postérieures ont une bordure noire ponctuée de tirets blancs, une bande noire et une bande noire basale
+Le revers est plus clair avec la même ornementation.
+</t>
         </is>
       </c>
     </row>
@@ -607,12 +628,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eresia erysice est présent en Guyane et au Brésil[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eresia erysice est présent en Guyane et au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eresia_erysice</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eresia_erysice</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
